--- a/backend/data/multiclass/result.xlsx
+++ b/backend/data/multiclass/result.xlsx
@@ -94,6 +94,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multiclass</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with 3 depth Decision Stump</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1334,46 +1358,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103104776"/>
-        <c:axId val="-2102881048"/>
+        <c:axId val="-2100022120"/>
+        <c:axId val="-2100019160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103104776"/>
+        <c:axId val="-2100022120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102881048"/>
+        <c:crossAx val="-2100019160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2102881048"/>
+        <c:axId val="-2100019160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103104776"/>
+        <c:crossAx val="-2100022120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1748,7 +1805,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
